--- a/calving_event_list.xlsx
+++ b/calving_event_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DB1F6-220A-F249-A703-0797FD00BB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6451461-5F46-A74F-92CD-B44217CEF808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
+    <workbookView xWindow="3560" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chad Greene</author>
+  </authors>
+  <commentList>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{0083B1FD-468D-6548-90AB-41404B254EC9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chad Greene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>from wikipedia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{6E9F93F7-3F45-1542-8404-9F392288F2C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chad Greene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>from wikipedia</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -133,9 +209,6 @@
     <t>A43</t>
   </si>
   <si>
-    <t xml:space="preserve">This is list of known calving events, compiled by Chad A. Greene. </t>
-  </si>
-  <si>
     <t>A44</t>
   </si>
   <si>
@@ -182,13 +255,100 @@
   </si>
   <si>
     <t>Mass (Gt)</t>
+  </si>
+  <si>
+    <t>A22,A23,A24</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2004JC002843</t>
+  </si>
+  <si>
+    <t>ferrigno1987substantial, silva2006contribution</t>
+  </si>
+  <si>
+    <t>2002-05-11</t>
+  </si>
+  <si>
+    <t>Ross East</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>A76</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>A68</t>
+  </si>
+  <si>
+    <t>https://www.esa.int/ESA_Multimedia/Images/2021/05/Meet_the_world_s_largest_iceberg</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>2021-02</t>
+  </si>
+  <si>
+    <t>Brunt</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>https://earthobservatory.nasa.gov/images/148009/breakup-at-brunt</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2004GL020978</t>
+  </si>
+  <si>
+    <t>lazzara1999recent, joughinn2005calving</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>silva2006contribution</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/action/downloadSupplement?doi=10.1029%2F2004JC002843&amp;file=jgrc9941-sup-0002-ts01.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is list of known Antarctic calving events, compiled by Chad A. Greene. </t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>macayeal2008tabular</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.430.1908&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>budge2018,joughin2005calving, macayeal2008tabular</t>
+  </si>
+  <si>
+    <t>https://www.mers.byu.edu/long/papers/JSTARS2018_budge.pdf</t>
+  </si>
+  <si>
+    <t>2000-09</t>
+  </si>
+  <si>
+    <t>C16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +369,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -553,17 +726,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54D919-FE8E-844E-9F61-E7E81936B39C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54D919-FE8E-844E-9F61-E7E81936B39C}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.1640625" bestFit="1" customWidth="1"/>
@@ -573,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -587,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>2</v>
@@ -624,107 +798,110 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E5">
         <v>11225</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
+      <c r="D6" t="s">
+        <v>49</v>
       </c>
       <c r="E6">
         <v>11500</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>4540</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>7636</v>
+        <v>4540</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>442</v>
+        <v>7636</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
       </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>10915</v>
+        <v>442</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -741,30 +918,33 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>480</v>
+        <v>10915</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
       </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>1602</v>
+        <v>480</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -775,16 +955,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>138</v>
+        <v>1602</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -795,16 +975,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>9252</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>30</v>
@@ -821,10 +1001,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>2232</v>
+        <v>9252</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -833,39 +1013,168 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>2232</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>6368</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>5800</v>
+      </c>
+    </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
-        <v>2010</v>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1636</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>1270</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>4320</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/calving_event_list.xlsx
+++ b/calving_event_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgreene/Documents/GitHub/ice-shelf-geometry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6451461-5F46-A74F-92CD-B44217CEF808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8EFCF-8F51-9947-A455-4F5DDD73AB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
+    <workbookView minimized="1" xWindow="21400" yWindow="2640" windowWidth="28040" windowHeight="17440" xr2:uid="{60C4DA7A-40B0-A04E-A871-B09379055DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <author>Chad Greene</author>
   </authors>
   <commentList>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{0083B1FD-468D-6548-90AB-41404B254EC9}">
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{0083B1FD-468D-6548-90AB-41404B254EC9}">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{6E9F93F7-3F45-1542-8404-9F392288F2C3}">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{6E9F93F7-3F45-1542-8404-9F392288F2C3}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -342,6 +342,39 @@
   </si>
   <si>
     <t>C16</t>
+  </si>
+  <si>
+    <t>2006-.3-29</t>
+  </si>
+  <si>
+    <t>Drygalski</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>rack2004pattern</t>
+  </si>
+  <si>
+    <t>DOI: 10.3189/172756404781814005</t>
+  </si>
+  <si>
+    <t>1995-01-(25 to 30)</t>
+  </si>
+  <si>
+    <t>Larsen B</t>
+  </si>
+  <si>
+    <t>1998 Apr to Nov</t>
+  </si>
+  <si>
+    <t>2002-02</t>
+  </si>
+  <si>
+    <t>2002-03</t>
+  </si>
+  <si>
+    <t>2002-03 to 2003-04</t>
   </si>
 </sst>
 </file>
@@ -727,15 +760,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54D919-FE8E-844E-9F61-E7E81936B39C}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
@@ -869,102 +902,84 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>7636</v>
+        <v>2320</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>442</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E11">
-        <v>10915</v>
+        <v>1193</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>480</v>
+        <v>7636</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
       </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>1602</v>
+        <v>442</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -975,36 +990,39 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>138</v>
+        <v>10915</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>9252</v>
+        <v>480</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -1015,16 +1033,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>2232</v>
+        <v>1602</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -1035,137 +1053,262 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>9252</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>2232</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19">
-        <v>6368</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E21">
-        <v>5800</v>
+        <v>722</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E22">
-        <v>1636</v>
+        <v>2479</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23">
-        <v>1270</v>
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24">
+        <v>6368</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25">
+        <v>796</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>1636</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>1270</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" t="s">
         <v>55</v>
       </c>
-      <c r="E24">
+      <c r="E31">
         <v>4320</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H31" t="s">
         <v>58</v>
       </c>
     </row>
